--- a/artfynd/A 45872-2021.xlsx
+++ b/artfynd/A 45872-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,6 +2167,116 @@
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112439580</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Stigsbo, Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>570818</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6702190</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Husby</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
